--- a/Separation.xlsx
+++ b/Separation.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\Documents\GitHub\Replication-file-Robust-Text-Analysis\Replication-file-Robust-Text-Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDBCF5F-1362-47CE-A4FA-90AE1BAD0AF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4056" yWindow="4056" windowWidth="17280" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>FOMC1</t>
+    <t>FOMC1_start</t>
   </si>
   <si>
-    <t>FOMC2</t>
+    <t>FOMC2_start_from_end</t>
+  </si>
+  <si>
+    <t>FOMC1_end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +98,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +184,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +236,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,22 +429,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -401,8 +464,11 @@
       <c r="C2">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -410,10 +476,13 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -423,8 +492,11 @@
       <c r="C4">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -432,10 +504,13 @@
         <v>504</v>
       </c>
       <c r="C5">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>641</v>
+      </c>
+      <c r="D5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -443,10 +518,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -454,21 +532,27 @@
         <v>315</v>
       </c>
       <c r="C7">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>372</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -476,10 +560,13 @@
         <v>126</v>
       </c>
       <c r="C9">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="D9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -487,10 +574,13 @@
         <v>71</v>
       </c>
       <c r="C10">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="D10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -498,10 +588,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -509,10 +602,13 @@
         <v>228</v>
       </c>
       <c r="C12">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>348</v>
+      </c>
+      <c r="D12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -520,10 +616,13 @@
         <v>153</v>
       </c>
       <c r="C13">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>396</v>
+      </c>
+      <c r="D13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -531,10 +630,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -542,10 +644,13 @@
         <v>152</v>
       </c>
       <c r="C15">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="D15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -553,10 +658,13 @@
         <v>132</v>
       </c>
       <c r="C16">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>238</v>
+      </c>
+      <c r="D16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -564,10 +672,13 @@
         <v>104</v>
       </c>
       <c r="C17">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>247</v>
+      </c>
+      <c r="D17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -577,8 +688,11 @@
       <c r="C18">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -586,10 +700,13 @@
         <v>236</v>
       </c>
       <c r="C19">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>326</v>
+      </c>
+      <c r="D19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -597,10 +714,13 @@
         <v>74</v>
       </c>
       <c r="C20">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>193</v>
+      </c>
+      <c r="D20">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -608,10 +728,13 @@
         <v>518</v>
       </c>
       <c r="C21">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>660</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -619,10 +742,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -630,10 +756,13 @@
         <v>97</v>
       </c>
       <c r="C23">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -641,10 +770,13 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -652,10 +784,13 @@
         <v>18</v>
       </c>
       <c r="C25">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>143</v>
+      </c>
+      <c r="D25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -663,10 +798,13 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D26">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -674,10 +812,13 @@
         <v>99</v>
       </c>
       <c r="C27">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>216</v>
+      </c>
+      <c r="D27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -685,10 +826,13 @@
         <v>189</v>
       </c>
       <c r="C28">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>304</v>
+      </c>
+      <c r="D28">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -698,8 +842,11 @@
       <c r="C29">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -707,10 +854,13 @@
         <v>181</v>
       </c>
       <c r="C30">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>297</v>
+      </c>
+      <c r="D30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -718,10 +868,13 @@
         <v>203</v>
       </c>
       <c r="C31">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>246</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -731,8 +884,11 @@
       <c r="C32">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -740,10 +896,13 @@
         <v>52</v>
       </c>
       <c r="C33">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D33">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -751,10 +910,13 @@
         <v>132</v>
       </c>
       <c r="C34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>201</v>
+      </c>
+      <c r="D34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -762,10 +924,13 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="D35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -773,10 +938,13 @@
         <v>21</v>
       </c>
       <c r="C36">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -786,8 +954,11 @@
       <c r="C37">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -795,10 +966,13 @@
         <v>71</v>
       </c>
       <c r="C38">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>155</v>
+      </c>
+      <c r="D38">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -808,8 +982,11 @@
       <c r="C39">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -817,10 +994,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="D40">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -828,10 +1008,13 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>166</v>
+      </c>
+      <c r="D41">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -839,10 +1022,13 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D42">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -850,10 +1036,13 @@
         <v>82</v>
       </c>
       <c r="C43">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>229</v>
+      </c>
+      <c r="D43">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -861,10 +1050,13 @@
         <v>30</v>
       </c>
       <c r="C44">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -872,10 +1064,13 @@
         <v>19</v>
       </c>
       <c r="C45">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -883,10 +1078,13 @@
         <v>43</v>
       </c>
       <c r="C46">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D46">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -896,8 +1094,11 @@
       <c r="C47">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -905,10 +1106,13 @@
         <v>42</v>
       </c>
       <c r="C48">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -916,10 +1120,13 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>322</v>
+      </c>
+      <c r="D49">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -927,10 +1134,13 @@
         <v>38</v>
       </c>
       <c r="C50">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -940,8 +1150,11 @@
       <c r="C51">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -949,10 +1162,13 @@
         <v>758</v>
       </c>
       <c r="C52">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>824</v>
+      </c>
+      <c r="D52">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -960,10 +1176,13 @@
         <v>36</v>
       </c>
       <c r="C53">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D53">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -971,10 +1190,13 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>368</v>
+      </c>
+      <c r="D54">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -982,10 +1204,13 @@
         <v>111</v>
       </c>
       <c r="C55">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -993,10 +1218,13 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1004,10 +1232,13 @@
         <v>104</v>
       </c>
       <c r="C57">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>226</v>
+      </c>
+      <c r="D57">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1015,10 +1246,13 @@
         <v>22</v>
       </c>
       <c r="C58">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="D58">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1026,10 +1260,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>166</v>
+      </c>
+      <c r="D59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1037,10 +1274,13 @@
         <v>45</v>
       </c>
       <c r="C60">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1048,10 +1288,13 @@
         <v>19</v>
       </c>
       <c r="C61">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D61">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1059,10 +1302,13 @@
         <v>622</v>
       </c>
       <c r="C62">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>703</v>
+      </c>
+      <c r="D62">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1070,10 +1316,13 @@
         <v>139</v>
       </c>
       <c r="C63">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>225</v>
+      </c>
+      <c r="D63">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1081,10 +1330,13 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="D64">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1092,10 +1344,13 @@
         <v>193</v>
       </c>
       <c r="C65">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>298</v>
+      </c>
+      <c r="D65">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1105,8 +1360,11 @@
       <c r="C66">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1114,10 +1372,13 @@
         <v>29</v>
       </c>
       <c r="C67">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D67">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1125,10 +1386,13 @@
         <v>133</v>
       </c>
       <c r="C68">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>238</v>
+      </c>
+      <c r="D68">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1136,10 +1400,13 @@
         <v>77</v>
       </c>
       <c r="C69">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="D69">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1147,10 +1414,13 @@
         <v>46</v>
       </c>
       <c r="C70">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D70">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1160,8 +1430,11 @@
       <c r="C71">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1169,10 +1442,13 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="D72">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1180,10 +1456,13 @@
         <v>44</v>
       </c>
       <c r="C73">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D73">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1191,10 +1470,13 @@
         <v>50</v>
       </c>
       <c r="C74">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D74">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1202,10 +1484,13 @@
         <v>29</v>
       </c>
       <c r="C75">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1213,10 +1498,13 @@
         <v>25</v>
       </c>
       <c r="C76">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D76">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1224,10 +1512,13 @@
         <v>61</v>
       </c>
       <c r="C77">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D77">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1235,10 +1526,13 @@
         <v>118</v>
       </c>
       <c r="C78">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D78">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1248,8 +1542,11 @@
       <c r="C79">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1257,10 +1554,13 @@
         <v>38</v>
       </c>
       <c r="C80">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D80">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1268,10 +1568,13 @@
         <v>83</v>
       </c>
       <c r="C81">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="D81">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1279,10 +1582,13 @@
         <v>49</v>
       </c>
       <c r="C82">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1292,8 +1598,11 @@
       <c r="C83">
         <v>99</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1301,10 +1610,13 @@
         <v>73</v>
       </c>
       <c r="C84">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="D84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1314,8 +1626,11 @@
       <c r="C85">
         <v>89</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1323,10 +1638,13 @@
         <v>61</v>
       </c>
       <c r="C86">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1336,8 +1654,11 @@
       <c r="C87">
         <v>137</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1345,10 +1666,13 @@
         <v>51</v>
       </c>
       <c r="C88">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>178</v>
+      </c>
+      <c r="D88">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1356,10 +1680,13 @@
         <v>37</v>
       </c>
       <c r="C89">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="D89">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1369,8 +1696,11 @@
       <c r="C90">
         <v>138</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1378,10 +1708,13 @@
         <v>106</v>
       </c>
       <c r="C91">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="D91">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1391,8 +1724,11 @@
       <c r="C92">
         <v>238</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1402,8 +1738,11 @@
       <c r="C93">
         <v>115</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1411,10 +1750,13 @@
         <v>79</v>
       </c>
       <c r="C94">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1424,8 +1766,11 @@
       <c r="C95">
         <v>80</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1433,10 +1778,13 @@
         <v>49</v>
       </c>
       <c r="C96">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="D96">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1444,10 +1792,13 @@
         <v>37</v>
       </c>
       <c r="C97">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="D97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1457,8 +1808,11 @@
       <c r="C98">
         <v>223</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1468,8 +1822,11 @@
       <c r="C99">
         <v>77</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1479,8 +1836,11 @@
       <c r="C100">
         <v>86</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1488,10 +1848,13 @@
         <v>26</v>
       </c>
       <c r="C101">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D101">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1499,10 +1862,13 @@
         <v>61</v>
       </c>
       <c r="C102">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D102">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1512,8 +1878,11 @@
       <c r="C103">
         <v>164</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1523,8 +1892,11 @@
       <c r="C104">
         <v>152</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1532,10 +1904,13 @@
         <v>18</v>
       </c>
       <c r="C105">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="D105">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1543,10 +1918,13 @@
         <v>54</v>
       </c>
       <c r="C106">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D106">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1556,8 +1934,11 @@
       <c r="C107">
         <v>136</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1567,8 +1948,11 @@
       <c r="C108">
         <v>129</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1578,8 +1962,11 @@
       <c r="C109">
         <v>98</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1587,10 +1974,13 @@
         <v>307</v>
       </c>
       <c r="C110">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>411</v>
+      </c>
+      <c r="D110">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1600,8 +1990,11 @@
       <c r="C111">
         <v>114</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1609,10 +2002,13 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D112">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1620,10 +2016,13 @@
         <v>137</v>
       </c>
       <c r="C113">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>256</v>
+      </c>
+      <c r="D113">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1633,8 +2032,11 @@
       <c r="C114">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1644,8 +2046,11 @@
       <c r="C115">
         <v>89</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -1653,10 +2058,13 @@
         <v>29</v>
       </c>
       <c r="C116">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D116">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -1664,10 +2072,13 @@
         <v>31</v>
       </c>
       <c r="C117">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="D117">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -1675,10 +2086,13 @@
         <v>101</v>
       </c>
       <c r="C118">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>210</v>
+      </c>
+      <c r="D118">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -1688,8 +2102,11 @@
       <c r="C119">
         <v>145</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -1699,8 +2116,11 @@
       <c r="C120">
         <v>128</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -1710,8 +2130,11 @@
       <c r="C121">
         <v>208</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -1719,10 +2142,13 @@
         <v>49</v>
       </c>
       <c r="C122">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>108</v>
+      </c>
+      <c r="D122">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -1730,10 +2156,13 @@
         <v>53</v>
       </c>
       <c r="C123">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="D123">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -1741,10 +2170,13 @@
         <v>14</v>
       </c>
       <c r="C124">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D124">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -1752,10 +2184,13 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D125">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -1763,10 +2198,13 @@
         <v>226</v>
       </c>
       <c r="C126">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>354</v>
+      </c>
+      <c r="D126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -1776,8 +2214,11 @@
       <c r="C127">
         <v>102</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -1785,10 +2226,13 @@
         <v>29</v>
       </c>
       <c r="C128">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D128">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -1796,10 +2240,13 @@
         <v>93</v>
       </c>
       <c r="C129">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -1807,10 +2254,13 @@
         <v>40</v>
       </c>
       <c r="C130">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="D130">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -1818,10 +2268,13 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -1829,10 +2282,13 @@
         <v>80</v>
       </c>
       <c r="C132">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="D132">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -1840,10 +2296,13 @@
         <v>47</v>
       </c>
       <c r="C133">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="D133">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -1851,10 +2310,13 @@
         <v>45</v>
       </c>
       <c r="C134">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>160</v>
+      </c>
+      <c r="D134">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -1862,10 +2324,13 @@
         <v>251</v>
       </c>
       <c r="C135">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>374</v>
+      </c>
+      <c r="D135">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -1873,10 +2338,13 @@
         <v>42</v>
       </c>
       <c r="C136">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D136">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -1884,10 +2352,13 @@
         <v>55</v>
       </c>
       <c r="C137">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="D137">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -1897,8 +2368,11 @@
       <c r="C138">
         <v>346</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -1908,8 +2382,11 @@
       <c r="C139">
         <v>106</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -1917,10 +2394,13 @@
         <v>57</v>
       </c>
       <c r="C140">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="D140">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -1928,10 +2408,13 @@
         <v>48</v>
       </c>
       <c r="C141">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="D141">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -1939,10 +2422,13 @@
         <v>21</v>
       </c>
       <c r="C142">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D142">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -1952,8 +2438,11 @@
       <c r="C143">
         <v>173</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -1961,10 +2450,13 @@
         <v>35</v>
       </c>
       <c r="C144">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -1972,10 +2464,13 @@
         <v>29</v>
       </c>
       <c r="C145">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D145">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -1983,10 +2478,13 @@
         <v>5</v>
       </c>
       <c r="C146">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="D146">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -1994,10 +2492,13 @@
         <v>58</v>
       </c>
       <c r="C147">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="D147">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2005,10 +2506,13 @@
         <v>19</v>
       </c>
       <c r="C148">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D148">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2018,8 +2522,11 @@
       <c r="C149">
         <v>153</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2027,10 +2534,13 @@
         <v>25</v>
       </c>
       <c r="C150">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D150">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2038,7 +2548,10 @@
         <v>58</v>
       </c>
       <c r="C151">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="D151">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
